--- a/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_fallag_uniandes_edu_co/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B9E82C-1D0A-4C4B-BD9A-B3DD00F5E754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Mem Vs Tiempo" sheetId="13" r:id="rId2"/>
+    <sheet name="Graf Mem Vs Tiempo (2)" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_Ref64492224" localSheetId="0">'Datos Lab7'!$E$6</definedName>
+  </definedNames>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+  <si>
+    <t>Carga de Catálogo PROBING M1 (videos_large.csv)</t>
+  </si>
+  <si>
+    <r>
+      <t>Factor de Carga</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PROBING)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consumo de Datos [kB]</t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecución [ms]</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Máquina 1 (M.1)</t>
+  </si>
+  <si>
+    <t>Máquina 2 (M.2)</t>
+  </si>
+  <si>
+    <t>Procesadores</t>
+  </si>
+  <si>
+    <t>i7 10700 @2.9GHz- 4.8GHz</t>
+  </si>
+  <si>
+    <t>i5 6200U CPU @2.30GHz 2.40GHz</t>
+  </si>
+  <si>
+    <t>Memoria RAM (GB)</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>4 gb</t>
+  </si>
+  <si>
+    <t>Sistema Operativo</t>
+  </si>
+  <si>
+    <t>Windows 10 Home</t>
+  </si>
+  <si>
+    <t>Carga de Catálogo CHAINING M1 (videos_large.csv)</t>
+  </si>
+  <si>
+    <t>Factor de Carga (CHAINING)</t>
+  </si>
+  <si>
+    <t>Carga de Catálogo PROBING M2 (videos_small.csv)</t>
+  </si>
   <si>
     <r>
       <t>Factor de Carga</t>
@@ -52,26 +123,14 @@
     </r>
   </si>
   <si>
-    <t>Factor de Carga (CHAINING)</t>
-  </si>
-  <si>
-    <t>Tiempo de Ejecución [ms]</t>
-  </si>
-  <si>
-    <t>Carga de Catálogo PROBING</t>
-  </si>
-  <si>
-    <t>Carga de Catálogo CHAINING</t>
-  </si>
-  <si>
-    <t>Consumo de Datos [kB]</t>
+    <t>Carga de Catálogo CHAINING M2 (videos_small.csv)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +155,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,11 +246,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -128,14 +366,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -408,7 +970,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -496,11 +1058,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$A$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carga de Catálogo CHAINING</c:v>
+                  <c:v>Carga de Catálogo PROBING M1 (videos_large.csv)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -580,13 +1142,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>647919.55000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>647818.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>647815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,13 +1160,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>25661.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>25881.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>26519.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,7 +1187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carga de Catálogo CHAINING</c:v>
+                  <c:v>Carga de Catálogo CHAINING M1 (videos_large.csv)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -706,13 +1268,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>648744.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>648670.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>648521.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,13 +1286,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>29818.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>30327.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>31225.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,6 +1301,681 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E4E-4715-9D75-DA94209629B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696671312"/>
+        <c:axId val="1833162896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696671312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Memoria Utilizada [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>kB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1833162896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1833162896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de ejecución [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696671312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419" sz="1800" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparación de Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> y Memoria utilizados en PROBING y CHAINING </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$14:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo PROBING M2 (videos_small.csv)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1966.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1962.7850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1959.3630000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>162.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.53100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0401-4A07-A0CA-9697DB4861B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Lab7'!$A$20:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carga de Catálogo CHAINING M2 (videos_small.csv)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$B$22:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021.855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014.3789999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Lab7'!$C$22:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>209.35499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0401-4A07-A0CA-9697DB4861B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1117,7 +2354,560 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1644,11 +3434,22 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B0050504-2C25-4CBE-A640-3579A318E6CD}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8660296" cy="6281530"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1677,25 +3478,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8660296" cy="6281530"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBB0939-6AB6-4D64-95BC-F742099152E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Consumo de Datos [kB]" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Tiempo de Ejecución [ms]" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7C631C40-02C7-40DB-9D86-4C5C570E4AC4}" name="Table14" displayName="Table14" ref="A15:C18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A15:C18" xr:uid="{50BBCDBF-ED9E-4473-BC26-B73E369CBA86}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5F8573C8-F97F-4B5C-927C-9288E39E3C4C}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{36488403-4259-4029-BD1C-B8C5FA2E3951}" name="Consumo de Datos [kB]" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8C8AF971-FBB0-48F9-9FEE-A54B160F18EC}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3389B23E-1778-4D65-94D6-26C77197E0A7}" name="Table135" displayName="Table135" ref="A21:C24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A21:C24" xr:uid="{B419AF63-C701-41F9-8512-FA11CA4F27ED}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F572A09B-4CF8-4D3D-B06C-745CCBD99E4D}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E73649F5-671D-4881-A839-B2FCD51F48B0}" name="Consumo de Datos [kB]" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A4D940AE-454A-4292-9792-7BD734AADF7D}" name="Tiempo de Ejecución [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1998,157 +3856,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>647919.55000000005</v>
       </c>
       <c r="C3" s="2">
-        <v>45</v>
-      </c>
+        <v>25661.1</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
       <c r="B4" s="2">
-        <v>105</v>
+        <v>647818.65</v>
       </c>
       <c r="C4" s="2">
-        <v>55</v>
-      </c>
+        <v>25881.37</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
       <c r="B5" s="2">
-        <v>115</v>
+        <v>647815</v>
       </c>
       <c r="C5" s="2">
-        <v>75</v>
-      </c>
+        <v>26519.75</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="6" spans="1:11">
+      <c r="I6" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>100</v>
+        <v>648744.15</v>
       </c>
       <c r="C10" s="2">
-        <v>90</v>
+        <v>29818.97</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>120</v>
+        <v>648670.16</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
+        <v>30327.82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>140</v>
+        <v>648521.11</v>
       </c>
       <c r="C12" s="2">
-        <v>110</v>
+        <v>31225.55</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:11">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1966.02</v>
+      </c>
+      <c r="C16" s="2">
+        <v>162.00299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1962.7850000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>164.179</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1959.3630000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>168.53100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.65" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2021.855</v>
+      </c>
+      <c r="C22" s="2">
+        <v>209.35499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2014.3789999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>211.636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2023.98</v>
+      </c>
+      <c r="C24" s="2">
+        <v>215.73</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="16">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
-    <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CDA5B3E139C8E241A6C3164B233DF364" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c0ab17b108fb8124f0caa7df9f775e10">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6dc4f21c-f0f0-44cf-b4d3-1c61be24913a" xmlns:ns4="0aa61905-a8b4-4a8b-af71-2a129561bc35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96ffb2620e91433585fd22d5f632209b" ns3:_="" ns4:_="">
+    <xsd:import namespace="6dc4f21c-f0f0-44cf-b4d3-1c61be24913a"/>
+    <xsd:import namespace="0aa61905-a8b4-4a8b-af71-2a129561bc35"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2156,7 +4199,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="164883f8-7691-4ecf-b54a-664c0d0edefe" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6dc4f21c-f0f0-44cf-b4d3-1c61be24913a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2169,50 +4212,33 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0aa61905-a8b4-4a8b-af71-2a129561bc35" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2231,11 +4257,16 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2338,61 +4369,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1ADCA9-19EB-47C8-B62A-F1AE9CF24EAE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}"/>
 </file>